--- a/biology/Histoire de la zoologie et de la botanique/William_Oakes/William_Oakes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Oakes/William_Oakes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">William Oakes est un botaniste et mycologue américain, né le 1er juillet 1799 et mort le 31 juillet 1848[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William Oakes est un botaniste et mycologue américain, né le 1er juillet 1799 et mort le 31 juillet 1848.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il entre à Harvard en 1816 et commence à s’intéresser à l’histoire naturelle sous la direction de William Dandridge Peck (1763-1822). Après avoir obtenu son diplôme en 1820, Oakes étudie le droit durant trois ans. En 1824, il s’installe à Ipswich dans le Massachusetts et commence à exercer[2]. Quelques années plus tard, il abandonne le droit pour se consacrer à l’étude de l’histoire naturelle, notamment la faune et la flore de la Nouvelle-Angleterre. En 1842, on lui demande de faire une étude de la flore des montagnes Blanches et il consacre alors toute son énergie à ce projet.
-Le 31 juillet 1848, il tombe d’un ferry faisant la liaison entre Boston et East Boston et se noie[1].
-Le champignon Aleurodiscus oakesii (en) a été nommé d'après lui par Miles Joseph Berkeley et Moses Ashley Curtis[3] et Potamogeton oakesianus (potamot d'Oakes) porte également son nom[4], ainsi que Oenothera oakesiana et Oakesia conradii, qui a ensuite été renommé en Corema conradii.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il entre à Harvard en 1816 et commence à s’intéresser à l’histoire naturelle sous la direction de William Dandridge Peck (1763-1822). Après avoir obtenu son diplôme en 1820, Oakes étudie le droit durant trois ans. En 1824, il s’installe à Ipswich dans le Massachusetts et commence à exercer. Quelques années plus tard, il abandonne le droit pour se consacrer à l’étude de l’histoire naturelle, notamment la faune et la flore de la Nouvelle-Angleterre. En 1842, on lui demande de faire une étude de la flore des montagnes Blanches et il consacre alors toute son énergie à ce projet.
+Le 31 juillet 1848, il tombe d’un ferry faisant la liaison entre Boston et East Boston et se noie.
+Le champignon Aleurodiscus oakesii (en) a été nommé d'après lui par Miles Joseph Berkeley et Moses Ashley Curtis et Potamogeton oakesianus (potamot d'Oakes) porte également son nom, ainsi que Oenothera oakesiana et Oakesia conradii, qui a ensuite été renommé en Corema conradii.
 </t>
         </is>
       </c>
